--- a/Design/designdokument gammalt och uppdaterat/uppd designdoc (uppd 5e feb).xlsx
+++ b/Design/designdokument gammalt och uppdaterat/uppd designdoc (uppd 5e feb).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="273">
   <si>
     <t>Objekt/förmåga</t>
   </si>
@@ -887,12 +887,50 @@
   <si>
     <t>Uppdaterat 1e feb</t>
   </si>
+  <si>
+    <t>Känslighet hos svaga tiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om en del av Stix rör sig direkt under en svag tile ska </t>
+  </si>
+  <si>
+    <t>ska den gå sönder ett steg</t>
+  </si>
+  <si>
+    <t>den inte automatiskt gå sönder ett steg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Om delen dock rör sig direkt under och </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoppar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, då </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +1009,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1102,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
@@ -1179,6 +1225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1484,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T299"/>
+  <dimension ref="A1:T298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6930,137 +6980,173 @@
       <c r="S228" s="47"/>
       <c r="T228" s="49"/>
     </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A229" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229" s="65"/>
+      <c r="C229" s="65"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="G229" s="44"/>
+      <c r="H229" s="44"/>
+      <c r="I229" s="44"/>
+      <c r="J229" s="46"/>
+      <c r="K229" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L229" s="44"/>
+      <c r="M229" s="44"/>
+      <c r="N229" s="44"/>
+      <c r="O229" s="46"/>
+      <c r="P229" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q229" s="44"/>
+      <c r="R229" s="44"/>
+      <c r="S229" s="44"/>
+      <c r="T229" s="46"/>
+    </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="56"/>
-      <c r="B230" s="57"/>
-      <c r="C230" s="57"/>
-      <c r="D230" s="57"/>
-      <c r="E230" s="57"/>
-      <c r="F230" s="56"/>
-      <c r="G230" s="57"/>
-      <c r="H230" s="57"/>
-      <c r="I230" s="57"/>
-      <c r="J230" s="58"/>
-      <c r="K230" s="56"/>
-      <c r="L230" s="57"/>
-      <c r="M230" s="57"/>
-      <c r="N230" s="57"/>
-      <c r="O230" s="58"/>
-      <c r="P230" s="57"/>
-      <c r="Q230" s="57"/>
-      <c r="R230" s="57"/>
-      <c r="S230" s="57"/>
-      <c r="T230" s="58"/>
+      <c r="A230" s="52"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G230" s="35"/>
+      <c r="H230" s="35"/>
+      <c r="I230" s="35"/>
+      <c r="J230" s="36"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="35"/>
+      <c r="M230" s="35"/>
+      <c r="N230" s="35"/>
+      <c r="O230" s="36"/>
+      <c r="P230" s="35"/>
+      <c r="Q230" s="35"/>
+      <c r="R230" s="35"/>
+      <c r="S230" s="35"/>
+      <c r="T230" s="36"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="56"/>
-      <c r="B231" s="57"/>
-      <c r="C231" s="57"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="57"/>
-      <c r="F231" s="56"/>
-      <c r="G231" s="57"/>
-      <c r="H231" s="57"/>
-      <c r="I231" s="57"/>
-      <c r="J231" s="58"/>
-      <c r="K231" s="56"/>
-      <c r="L231" s="57"/>
-      <c r="M231" s="57"/>
-      <c r="N231" s="57"/>
-      <c r="O231" s="58"/>
-      <c r="P231" s="57"/>
-      <c r="Q231" s="57"/>
-      <c r="R231" s="57"/>
-      <c r="S231" s="57"/>
-      <c r="T231" s="58"/>
+      <c r="A231" s="52"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="35"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="35"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="43"/>
+      <c r="L231" s="35"/>
+      <c r="M231" s="35"/>
+      <c r="N231" s="35"/>
+      <c r="O231" s="36"/>
+      <c r="P231" s="35"/>
+      <c r="Q231" s="35"/>
+      <c r="R231" s="35"/>
+      <c r="S231" s="35"/>
+      <c r="T231" s="36"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A232" s="56"/>
-      <c r="B232" s="57"/>
-      <c r="C232" s="57"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="56"/>
-      <c r="G232" s="57"/>
-      <c r="H232" s="57"/>
-      <c r="I232" s="57"/>
-      <c r="J232" s="58"/>
-      <c r="K232" s="56"/>
-      <c r="L232" s="57"/>
-      <c r="M232" s="57"/>
-      <c r="N232" s="57"/>
-      <c r="O232" s="58"/>
-      <c r="P232" s="57"/>
-      <c r="Q232" s="57"/>
-      <c r="R232" s="57"/>
-      <c r="S232" s="57"/>
-      <c r="T232" s="58"/>
+      <c r="A232" s="52"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G232" s="35"/>
+      <c r="H232" s="35"/>
+      <c r="I232" s="35"/>
+      <c r="J232" s="36"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="35"/>
+      <c r="M232" s="35"/>
+      <c r="N232" s="35"/>
+      <c r="O232" s="36"/>
+      <c r="P232" s="35"/>
+      <c r="Q232" s="35"/>
+      <c r="R232" s="35"/>
+      <c r="S232" s="35"/>
+      <c r="T232" s="36"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A233" s="56"/>
-      <c r="B233" s="57"/>
-      <c r="C233" s="57"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="56"/>
-      <c r="G233" s="57"/>
-      <c r="H233" s="57"/>
-      <c r="I233" s="57"/>
-      <c r="J233" s="58"/>
-      <c r="K233" s="56"/>
-      <c r="L233" s="57"/>
-      <c r="M233" s="57"/>
-      <c r="N233" s="57"/>
-      <c r="O233" s="58"/>
-      <c r="P233" s="57"/>
-      <c r="Q233" s="57"/>
-      <c r="R233" s="57"/>
-      <c r="S233" s="57"/>
-      <c r="T233" s="58"/>
+      <c r="A233" s="52"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="35"/>
+      <c r="J233" s="36"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="35"/>
+      <c r="M233" s="35"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="36"/>
+      <c r="P233" s="35"/>
+      <c r="Q233" s="35"/>
+      <c r="R233" s="35"/>
+      <c r="S233" s="35"/>
+      <c r="T233" s="36"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="56"/>
-      <c r="B234" s="57"/>
-      <c r="C234" s="57"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="56"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
-      <c r="I234" s="57"/>
-      <c r="J234" s="58"/>
-      <c r="K234" s="56"/>
-      <c r="L234" s="57"/>
-      <c r="M234" s="57"/>
-      <c r="N234" s="57"/>
-      <c r="O234" s="58"/>
-      <c r="P234" s="57"/>
-      <c r="Q234" s="57"/>
-      <c r="R234" s="57"/>
-      <c r="S234" s="57"/>
-      <c r="T234" s="58"/>
+      <c r="A234" s="52"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="43"/>
+      <c r="G234" s="35"/>
+      <c r="H234" s="35"/>
+      <c r="I234" s="35"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="35"/>
+      <c r="M234" s="35"/>
+      <c r="N234" s="35"/>
+      <c r="O234" s="36"/>
+      <c r="P234" s="35"/>
+      <c r="Q234" s="35"/>
+      <c r="R234" s="35"/>
+      <c r="S234" s="35"/>
+      <c r="T234" s="36"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="56"/>
-      <c r="B235" s="57"/>
-      <c r="C235" s="57"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="57"/>
-      <c r="F235" s="56"/>
-      <c r="G235" s="57"/>
-      <c r="H235" s="57"/>
-      <c r="I235" s="57"/>
-      <c r="J235" s="58"/>
-      <c r="K235" s="56"/>
-      <c r="L235" s="57"/>
-      <c r="M235" s="57"/>
-      <c r="N235" s="57"/>
-      <c r="O235" s="58"/>
-      <c r="P235" s="57"/>
-      <c r="Q235" s="57"/>
-      <c r="R235" s="57"/>
-      <c r="S235" s="57"/>
-      <c r="T235" s="58"/>
+      <c r="A235" s="62"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="63"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="62"/>
+      <c r="G235" s="63"/>
+      <c r="H235" s="63"/>
+      <c r="I235" s="63"/>
+      <c r="J235" s="64"/>
+      <c r="K235" s="62"/>
+      <c r="L235" s="63"/>
+      <c r="M235" s="63"/>
+      <c r="N235" s="63"/>
+      <c r="O235" s="64"/>
+      <c r="P235" s="63"/>
+      <c r="Q235" s="63"/>
+      <c r="R235" s="63"/>
+      <c r="S235" s="63"/>
+      <c r="T235" s="64"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="56"/>
@@ -8427,48 +8513,26 @@
       <c r="T297" s="58"/>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A298" s="56"/>
-      <c r="B298" s="57"/>
-      <c r="C298" s="57"/>
-      <c r="D298" s="57"/>
-      <c r="E298" s="57"/>
-      <c r="F298" s="56"/>
-      <c r="G298" s="57"/>
-      <c r="H298" s="57"/>
-      <c r="I298" s="57"/>
-      <c r="J298" s="58"/>
-      <c r="K298" s="56"/>
-      <c r="L298" s="57"/>
-      <c r="M298" s="57"/>
-      <c r="N298" s="57"/>
-      <c r="O298" s="58"/>
-      <c r="P298" s="57"/>
-      <c r="Q298" s="57"/>
-      <c r="R298" s="57"/>
-      <c r="S298" s="57"/>
-      <c r="T298" s="58"/>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A299" s="59"/>
-      <c r="B299" s="60"/>
-      <c r="C299" s="60"/>
-      <c r="D299" s="60"/>
-      <c r="E299" s="60"/>
-      <c r="F299" s="59"/>
-      <c r="G299" s="60"/>
-      <c r="H299" s="60"/>
-      <c r="I299" s="60"/>
-      <c r="J299" s="61"/>
-      <c r="K299" s="59"/>
-      <c r="L299" s="60"/>
-      <c r="M299" s="60"/>
-      <c r="N299" s="60"/>
-      <c r="O299" s="61"/>
-      <c r="P299" s="60"/>
-      <c r="Q299" s="60"/>
-      <c r="R299" s="60"/>
-      <c r="S299" s="60"/>
-      <c r="T299" s="61"/>
+      <c r="A298" s="59"/>
+      <c r="B298" s="60"/>
+      <c r="C298" s="60"/>
+      <c r="D298" s="60"/>
+      <c r="E298" s="60"/>
+      <c r="F298" s="59"/>
+      <c r="G298" s="60"/>
+      <c r="H298" s="60"/>
+      <c r="I298" s="60"/>
+      <c r="J298" s="61"/>
+      <c r="K298" s="59"/>
+      <c r="L298" s="60"/>
+      <c r="M298" s="60"/>
+      <c r="N298" s="60"/>
+      <c r="O298" s="61"/>
+      <c r="P298" s="60"/>
+      <c r="Q298" s="60"/>
+      <c r="R298" s="60"/>
+      <c r="S298" s="60"/>
+      <c r="T298" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
